--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Unidad de medida: Tasas / porcentaje</t>
-  </si>
-  <si>
-    <t>Última actualización: enero de 2022</t>
   </si>
   <si>
     <t>Año / mes / quincena</t>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Inflación quincenal respecto a la quincena inmediata anterior por grupo de objeto de gasto</t>
+  </si>
+  <si>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:CF27"/>
+  <dimension ref="A8:CG27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -631,42 +631,42 @@
     <col min="42" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -919,260 +919,266 @@
       <c r="CF16" s="3">
         <v>2022</v>
       </c>
+      <c r="CG16" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="O17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="T17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="V17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="W17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="X17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="AA17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AC17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AC17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AF17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AG17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AH17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AI17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AJ17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AI17" s="4" t="s">
+      <c r="AK17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AJ17" s="4" t="s">
+      <c r="AL17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AM17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AN17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AM17" s="4" t="s">
+      <c r="AO17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AP17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AO17" s="4" t="s">
+      <c r="AQ17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AP17" s="4" t="s">
+      <c r="AR17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="AS17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AR17" s="4" t="s">
+      <c r="AT17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AS17" s="4" t="s">
+      <c r="AU17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AT17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="AV17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AW17" s="4" t="s">
+      <c r="AY17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AX17" s="4" t="s">
+      <c r="AZ17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AY17" s="4" t="s">
+      <c r="BA17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AZ17" s="4" t="s">
+      <c r="BB17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BA17" s="4" t="s">
+      <c r="BC17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BB17" s="4" t="s">
+      <c r="BD17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BC17" s="4" t="s">
+      <c r="BE17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BD17" s="4" t="s">
+      <c r="BF17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BE17" s="4" t="s">
+      <c r="BG17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BF17" s="4" t="s">
+      <c r="BH17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BG17" s="4" t="s">
+      <c r="BI17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BH17" s="4" t="s">
+      <c r="BJ17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BI17" s="4" t="s">
+      <c r="BK17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BJ17" s="4" t="s">
+      <c r="BL17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BK17" s="4" t="s">
+      <c r="BM17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BL17" s="4" t="s">
+      <c r="BN17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BM17" s="4" t="s">
+      <c r="BO17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BN17" s="4" t="s">
+      <c r="BP17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BO17" s="4" t="s">
+      <c r="BQ17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BP17" s="4" t="s">
+      <c r="BR17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BQ17" s="4" t="s">
+      <c r="BS17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BR17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="BT17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BV17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BU17" s="4" t="s">
+      <c r="BW17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="BV17" s="4" t="s">
+      <c r="BX17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BW17" s="4" t="s">
+      <c r="BY17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="BX17" s="4" t="s">
+      <c r="BZ17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BY17" s="4" t="s">
+      <c r="CA17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="BZ17" s="4" t="s">
+      <c r="CB17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CA17" s="4" t="s">
+      <c r="CC17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="CB17" s="4" t="s">
+      <c r="CD17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="CC17" s="4" t="s">
+      <c r="CE17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="CD17" s="4" t="s">
+      <c r="CF17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CE17" s="4" t="s">
+      <c r="CG17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="CF17" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="5">
         <v>1</v>
@@ -1423,8 +1429,11 @@
       <c r="CF18" s="5">
         <v>1</v>
       </c>
+      <c r="CG18" s="5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
@@ -1677,8 +1686,11 @@
       <c r="CF19" s="8">
         <v>7.2138757331492442E-3</v>
       </c>
+      <c r="CG19" s="8">
+        <v>3.5888892348894252E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
@@ -1931,10 +1943,13 @@
       <c r="CF20" s="8">
         <v>-4.5578769463123781E-3</v>
       </c>
+      <c r="CG20" s="8">
+        <v>4.2987835165133603E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="8">
         <v>2.9799999999999827E-3</v>
@@ -2185,8 +2200,11 @@
       <c r="CF21" s="8">
         <v>2.7068898006437081E-3</v>
       </c>
+      <c r="CG21" s="8">
+        <v>4.3125403239498983E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -2439,8 +2457,11 @@
       <c r="CF22" s="8">
         <v>-1.7377872176096432E-3</v>
       </c>
+      <c r="CG22" s="8">
+        <v>5.8763931104357514E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -2693,8 +2714,11 @@
       <c r="CF23" s="8">
         <v>4.7915945040988284E-3</v>
       </c>
+      <c r="CG23" s="8">
+        <v>1.0005335084335432E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>4</v>
       </c>
@@ -2947,8 +2971,11 @@
       <c r="CF24" s="8">
         <v>-2.4890760824187508E-2</v>
       </c>
+      <c r="CG24" s="8">
+        <v>-1.0665220535068798E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -3201,8 +3228,11 @@
       <c r="CF25" s="8">
         <v>6.955302744379166E-3</v>
       </c>
+      <c r="CG25" s="8">
+        <v>1.7758977654029895E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>6</v>
       </c>
@@ -3455,8 +3485,11 @@
       <c r="CF26" s="8">
         <v>4.6443475205868445E-3</v>
       </c>
+      <c r="CG26" s="8">
+        <v>2.4734952193308235E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>7</v>
       </c>
@@ -3708,6 +3741,9 @@
       </c>
       <c r="CF27" s="8">
         <v>2.1330213302133139E-3</v>
+      </c>
+      <c r="CG27" s="8">
+        <v>8.0289545295337827E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -329,10 +329,13 @@
     <t>1°Q/2/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/2/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/24/2022</t>
+  </si>
+  <si>
+    <t>1°Q/3/2022</t>
   </si>
 </sst>
 </file>
@@ -824,7 +827,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1097,9 +1100,11 @@
         <v>99</v>
       </c>
       <c r="CI15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CJ15" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="CJ15" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
@@ -1524,7 +1529,9 @@
       <c r="CI16" s="6">
         <v>3.7545356806880648E-3</v>
       </c>
-      <c r="CJ16" s="6"/>
+      <c r="CJ16" s="6">
+        <v>6.1755771821627725E-3</v>
+      </c>
       <c r="CK16" s="6"/>
       <c r="CL16" s="6"/>
       <c r="CM16" s="6"/>
@@ -1949,7 +1956,9 @@
       <c r="CI17" s="6">
         <v>4.4373351380035952E-3</v>
       </c>
-      <c r="CJ17" s="6"/>
+      <c r="CJ17" s="6">
+        <v>2.3045708598115056E-3</v>
+      </c>
       <c r="CK17" s="6"/>
       <c r="CL17" s="6"/>
       <c r="CM17" s="6"/>
@@ -2374,7 +2383,9 @@
       <c r="CI18" s="6">
         <v>1.5627395370228392E-2</v>
       </c>
-      <c r="CJ18" s="6"/>
+      <c r="CJ18" s="6">
+        <v>2.2245492882008389E-2</v>
+      </c>
       <c r="CK18" s="6"/>
       <c r="CL18" s="6"/>
       <c r="CM18" s="6"/>
@@ -2799,7 +2810,9 @@
       <c r="CI19" s="6">
         <v>9.9185263903645016E-4</v>
       </c>
-      <c r="CJ19" s="6"/>
+      <c r="CJ19" s="6">
+        <v>1.1863896949536379E-2</v>
+      </c>
       <c r="CK19" s="6"/>
       <c r="CL19" s="6"/>
       <c r="CM19" s="6"/>
@@ -3224,7 +3237,9 @@
       <c r="CI20" s="6">
         <v>1.8194348725015796E-3</v>
       </c>
-      <c r="CJ20" s="6"/>
+      <c r="CJ20" s="6">
+        <v>2.0133366353888738E-2</v>
+      </c>
       <c r="CK20" s="6"/>
       <c r="CL20" s="6"/>
       <c r="CM20" s="6"/>
@@ -3649,7 +3664,9 @@
       <c r="CI21" s="6">
         <v>3.7634171120632942E-3</v>
       </c>
-      <c r="CJ21" s="6"/>
+      <c r="CJ21" s="6">
+        <v>6.6008924406579794E-4</v>
+      </c>
       <c r="CK21" s="6"/>
       <c r="CL21" s="6"/>
       <c r="CM21" s="6"/>
@@ -4074,7 +4091,9 @@
       <c r="CI22" s="6">
         <v>4.8451992715259351E-3</v>
       </c>
-      <c r="CJ22" s="6"/>
+      <c r="CJ22" s="6">
+        <v>9.4160688544766558E-3</v>
+      </c>
       <c r="CK22" s="6"/>
       <c r="CL22" s="6"/>
       <c r="CM22" s="6"/>
@@ -4499,7 +4518,9 @@
       <c r="CI23" s="6">
         <v>5.6334501752641764E-4</v>
       </c>
-      <c r="CJ23" s="6"/>
+      <c r="CJ23" s="6">
+        <v>-3.1904910853925994E-3</v>
+      </c>
       <c r="CK23" s="6"/>
       <c r="CL23" s="6"/>
       <c r="CM23" s="6"/>
@@ -4924,7 +4945,9 @@
       <c r="CI24" s="6">
         <v>4.5561398831883704E-3</v>
       </c>
-      <c r="CJ24" s="6"/>
+      <c r="CJ24" s="6">
+        <v>1.7450322871181978E-3</v>
+      </c>
       <c r="CK24" s="6"/>
       <c r="CL24" s="6"/>
       <c r="CM24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -332,10 +332,13 @@
     <t>2°Q/2/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/24/2022</t>
-  </si>
-  <si>
     <t>1°Q/3/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/07/2022</t>
+  </si>
+  <si>
+    <t>2°Q/3/2022</t>
   </si>
 </sst>
 </file>
@@ -827,7 +830,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1103,9 +1106,11 @@
         <v>100</v>
       </c>
       <c r="CJ15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK15" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="CK15" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
@@ -1532,7 +1537,9 @@
       <c r="CJ16" s="6">
         <v>6.1755771821627725E-3</v>
       </c>
-      <c r="CK16" s="6"/>
+      <c r="CK16" s="6">
+        <v>5.6636255520163825E-3</v>
+      </c>
       <c r="CL16" s="6"/>
       <c r="CM16" s="6"/>
       <c r="CN16" s="6"/>
@@ -1959,7 +1966,9 @@
       <c r="CJ17" s="6">
         <v>2.3045708598115056E-3</v>
       </c>
-      <c r="CK17" s="6"/>
+      <c r="CK17" s="6">
+        <v>2.6353782340673426E-3</v>
+      </c>
       <c r="CL17" s="6"/>
       <c r="CM17" s="6"/>
       <c r="CN17" s="6"/>
@@ -2386,7 +2395,9 @@
       <c r="CJ18" s="6">
         <v>2.2245492882008389E-2</v>
       </c>
-      <c r="CK18" s="6"/>
+      <c r="CK18" s="6">
+        <v>1.5679651522282789E-2</v>
+      </c>
       <c r="CL18" s="6"/>
       <c r="CM18" s="6"/>
       <c r="CN18" s="6"/>
@@ -2813,7 +2824,9 @@
       <c r="CJ19" s="6">
         <v>1.1863896949536379E-2</v>
       </c>
-      <c r="CK19" s="6"/>
+      <c r="CK19" s="6">
+        <v>4.2230246649119785E-3</v>
+      </c>
       <c r="CL19" s="6"/>
       <c r="CM19" s="6"/>
       <c r="CN19" s="6"/>
@@ -3240,7 +3253,9 @@
       <c r="CJ20" s="6">
         <v>2.0133366353888738E-2</v>
       </c>
-      <c r="CK20" s="6"/>
+      <c r="CK20" s="6">
+        <v>6.6356165368914866E-3</v>
+      </c>
       <c r="CL20" s="6"/>
       <c r="CM20" s="6"/>
       <c r="CN20" s="6"/>
@@ -3667,7 +3682,9 @@
       <c r="CJ21" s="6">
         <v>6.6008924406579794E-4</v>
       </c>
-      <c r="CK21" s="6"/>
+      <c r="CK21" s="6">
+        <v>-3.5269490571347983E-3</v>
+      </c>
       <c r="CL21" s="6"/>
       <c r="CM21" s="6"/>
       <c r="CN21" s="6"/>
@@ -4094,7 +4111,9 @@
       <c r="CJ22" s="6">
         <v>9.4160688544766558E-3</v>
       </c>
-      <c r="CK22" s="6"/>
+      <c r="CK22" s="6">
+        <v>1.1140432923570254E-2</v>
+      </c>
       <c r="CL22" s="6"/>
       <c r="CM22" s="6"/>
       <c r="CN22" s="6"/>
@@ -4521,7 +4540,9 @@
       <c r="CJ23" s="6">
         <v>-3.1904910853925994E-3</v>
       </c>
-      <c r="CK23" s="6"/>
+      <c r="CK23" s="6">
+        <v>1.5564202334630295E-2</v>
+      </c>
       <c r="CL23" s="6"/>
       <c r="CM23" s="6"/>
       <c r="CN23" s="6"/>
@@ -4948,7 +4969,9 @@
       <c r="CJ24" s="6">
         <v>1.7450322871181978E-3</v>
       </c>
-      <c r="CK24" s="6"/>
+      <c r="CK24" s="6">
+        <v>4.3108292526290448E-3</v>
+      </c>
       <c r="CL24" s="6"/>
       <c r="CM24" s="6"/>
       <c r="CN24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -335,10 +335,13 @@
     <t>1°Q/3/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/07/2022</t>
-  </si>
-  <si>
     <t>2°Q/3/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  04/22/2022</t>
+  </si>
+  <si>
+    <t>1°Q/4/2022</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1109,9 +1112,11 @@
         <v>101</v>
       </c>
       <c r="CK15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CL15" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="CL15" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="CM15" s="3"/>
       <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
@@ -1540,7 +1545,9 @@
       <c r="CK16" s="6">
         <v>5.6636255520163825E-3</v>
       </c>
-      <c r="CL16" s="6"/>
+      <c r="CL16" s="6">
+        <v>5.8053952134433651E-3</v>
+      </c>
       <c r="CM16" s="6"/>
       <c r="CN16" s="6"/>
       <c r="CO16" s="6"/>
@@ -1969,7 +1976,9 @@
       <c r="CK17" s="6">
         <v>2.6353782340673426E-3</v>
       </c>
-      <c r="CL17" s="6"/>
+      <c r="CL17" s="6">
+        <v>9.8281221429876719E-3</v>
+      </c>
       <c r="CM17" s="6"/>
       <c r="CN17" s="6"/>
       <c r="CO17" s="6"/>
@@ -2398,7 +2407,9 @@
       <c r="CK18" s="6">
         <v>1.5679651522282789E-2</v>
       </c>
-      <c r="CL18" s="6"/>
+      <c r="CL18" s="6">
+        <v>-1.5810133023187456E-3</v>
+      </c>
       <c r="CM18" s="6"/>
       <c r="CN18" s="6"/>
       <c r="CO18" s="6"/>
@@ -2827,7 +2838,9 @@
       <c r="CK19" s="6">
         <v>4.2230246649119785E-3</v>
       </c>
-      <c r="CL19" s="6"/>
+      <c r="CL19" s="6">
+        <v>-6.7911123493757941E-4</v>
+      </c>
       <c r="CM19" s="6"/>
       <c r="CN19" s="6"/>
       <c r="CO19" s="6"/>
@@ -3256,7 +3269,9 @@
       <c r="CK20" s="6">
         <v>6.6356165368914866E-3</v>
       </c>
-      <c r="CL20" s="6"/>
+      <c r="CL20" s="6">
+        <v>2.0186501840009363E-3</v>
+      </c>
       <c r="CM20" s="6"/>
       <c r="CN20" s="6"/>
       <c r="CO20" s="6"/>
@@ -3685,7 +3700,9 @@
       <c r="CK21" s="6">
         <v>-3.5269490571347983E-3</v>
       </c>
-      <c r="CL21" s="6"/>
+      <c r="CL21" s="6">
+        <v>1.1483295820645223E-2</v>
+      </c>
       <c r="CM21" s="6"/>
       <c r="CN21" s="6"/>
       <c r="CO21" s="6"/>
@@ -4114,7 +4131,9 @@
       <c r="CK22" s="6">
         <v>1.1140432923570254E-2</v>
       </c>
-      <c r="CL22" s="6"/>
+      <c r="CL22" s="6">
+        <v>4.1295693685050594E-5</v>
+      </c>
       <c r="CM22" s="6"/>
       <c r="CN22" s="6"/>
       <c r="CO22" s="6"/>
@@ -4543,7 +4562,9 @@
       <c r="CK23" s="6">
         <v>1.5564202334630295E-2</v>
       </c>
-      <c r="CL23" s="6"/>
+      <c r="CL23" s="6">
+        <v>1.7197238554301997E-2</v>
+      </c>
       <c r="CM23" s="6"/>
       <c r="CN23" s="6"/>
       <c r="CO23" s="6"/>
@@ -4972,7 +4993,9 @@
       <c r="CK24" s="6">
         <v>4.3108292526290448E-3</v>
       </c>
-      <c r="CL24" s="6"/>
+      <c r="CL24" s="6">
+        <v>3.924640507725341E-3</v>
+      </c>
       <c r="CM24" s="6"/>
       <c r="CN24" s="6"/>
       <c r="CO24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -338,10 +338,13 @@
     <t>2°Q/3/2022</t>
   </si>
   <si>
-    <t>Última actualización:  04/22/2022</t>
-  </si>
-  <si>
     <t>1°Q/4/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/09/2022</t>
+  </si>
+  <si>
+    <t>2°Q/4/2022</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1115,9 +1118,11 @@
         <v>102</v>
       </c>
       <c r="CL15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="CM15" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="CM15" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="CN15" s="3"/>
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
@@ -1548,7 +1553,9 @@
       <c r="CL16" s="6">
         <v>5.8053952134433651E-3</v>
       </c>
-      <c r="CM16" s="6"/>
+      <c r="CM16" s="6">
+        <v>1.6197461027429583E-3</v>
+      </c>
       <c r="CN16" s="6"/>
       <c r="CO16" s="6"/>
       <c r="CP16" s="6"/>
@@ -1979,7 +1986,9 @@
       <c r="CL17" s="6">
         <v>9.8281221429876719E-3</v>
       </c>
-      <c r="CM17" s="6"/>
+      <c r="CM17" s="6">
+        <v>1.463642810797916E-3</v>
+      </c>
       <c r="CN17" s="6"/>
       <c r="CO17" s="6"/>
       <c r="CP17" s="6"/>
@@ -2410,7 +2419,9 @@
       <c r="CL18" s="6">
         <v>-1.5810133023187456E-3</v>
       </c>
-      <c r="CM18" s="6"/>
+      <c r="CM18" s="6">
+        <v>1.2458819460876125E-2</v>
+      </c>
       <c r="CN18" s="6"/>
       <c r="CO18" s="6"/>
       <c r="CP18" s="6"/>
@@ -2841,7 +2852,9 @@
       <c r="CL19" s="6">
         <v>-6.7911123493757941E-4</v>
       </c>
-      <c r="CM19" s="6"/>
+      <c r="CM19" s="6">
+        <v>-7.4927250866907436E-4</v>
+      </c>
       <c r="CN19" s="6"/>
       <c r="CO19" s="6"/>
       <c r="CP19" s="6"/>
@@ -3272,7 +3285,9 @@
       <c r="CL20" s="6">
         <v>2.0186501840009363E-3</v>
       </c>
-      <c r="CM20" s="6"/>
+      <c r="CM20" s="6">
+        <v>5.606960118379023E-3</v>
+      </c>
       <c r="CN20" s="6"/>
       <c r="CO20" s="6"/>
       <c r="CP20" s="6"/>
@@ -3703,7 +3718,9 @@
       <c r="CL21" s="6">
         <v>1.1483295820645223E-2</v>
       </c>
-      <c r="CM21" s="6"/>
+      <c r="CM21" s="6">
+        <v>2.1117665538064045E-3</v>
+      </c>
       <c r="CN21" s="6"/>
       <c r="CO21" s="6"/>
       <c r="CP21" s="6"/>
@@ -4134,7 +4151,9 @@
       <c r="CL22" s="6">
         <v>4.1295693685050594E-5</v>
       </c>
-      <c r="CM22" s="6"/>
+      <c r="CM22" s="6">
+        <v>2.2546517677957123E-3</v>
+      </c>
       <c r="CN22" s="6"/>
       <c r="CO22" s="6"/>
       <c r="CP22" s="6"/>
@@ -4565,7 +4584,9 @@
       <c r="CL23" s="6">
         <v>1.7197238554301997E-2</v>
       </c>
-      <c r="CM23" s="6"/>
+      <c r="CM23" s="6">
+        <v>-1.4346218604085914E-2</v>
+      </c>
       <c r="CN23" s="6"/>
       <c r="CO23" s="6"/>
       <c r="CP23" s="6"/>
@@ -4996,7 +5017,9 @@
       <c r="CL24" s="6">
         <v>3.924640507725341E-3</v>
       </c>
-      <c r="CM24" s="6"/>
+      <c r="CM24" s="6">
+        <v>1.6855363938916179E-2</v>
+      </c>
       <c r="CN24" s="6"/>
       <c r="CO24" s="6"/>
       <c r="CP24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -341,10 +341,13 @@
     <t>1°Q/4/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/4/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  05/24/2022</t>
+  </si>
+  <si>
+    <t>1°Q/5/2022</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1121,9 +1124,11 @@
         <v>103</v>
       </c>
       <c r="CM15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN15" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="CN15" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="CO15" s="3"/>
       <c r="CP15" s="3"/>
       <c r="CQ15" s="3"/>
@@ -1556,7 +1561,9 @@
       <c r="CM16" s="6">
         <v>1.6197461027429583E-3</v>
       </c>
-      <c r="CN16" s="6"/>
+      <c r="CN16" s="6">
+        <v>1.2559410939001481E-3</v>
+      </c>
       <c r="CO16" s="6"/>
       <c r="CP16" s="6"/>
       <c r="CQ16" s="6"/>
@@ -1989,7 +1996,9 @@
       <c r="CM17" s="6">
         <v>1.463642810797916E-3</v>
       </c>
-      <c r="CN17" s="6"/>
+      <c r="CN17" s="6">
+        <v>1.672442368539917E-3</v>
+      </c>
       <c r="CO17" s="6"/>
       <c r="CP17" s="6"/>
       <c r="CQ17" s="6"/>
@@ -2422,7 +2431,9 @@
       <c r="CM18" s="6">
         <v>1.2458819460876125E-2</v>
       </c>
-      <c r="CN18" s="6"/>
+      <c r="CN18" s="6">
+        <v>4.4044547914179333E-4</v>
+      </c>
       <c r="CO18" s="6"/>
       <c r="CP18" s="6"/>
       <c r="CQ18" s="6"/>
@@ -2855,7 +2866,9 @@
       <c r="CM19" s="6">
         <v>-7.4927250866907436E-4</v>
       </c>
-      <c r="CN19" s="6"/>
+      <c r="CN19" s="6">
+        <v>1.0549994768598303E-3</v>
+      </c>
       <c r="CO19" s="6"/>
       <c r="CP19" s="6"/>
       <c r="CQ19" s="6"/>
@@ -3288,7 +3301,9 @@
       <c r="CM20" s="6">
         <v>5.606960118379023E-3</v>
       </c>
-      <c r="CN20" s="6"/>
+      <c r="CN20" s="6">
+        <v>-3.9357864038082058E-3</v>
+      </c>
       <c r="CO20" s="6"/>
       <c r="CP20" s="6"/>
       <c r="CQ20" s="6"/>
@@ -3721,7 +3736,9 @@
       <c r="CM21" s="6">
         <v>2.1117665538064045E-3</v>
       </c>
-      <c r="CN21" s="6"/>
+      <c r="CN21" s="6">
+        <v>6.3132412616033751E-3</v>
+      </c>
       <c r="CO21" s="6"/>
       <c r="CP21" s="6"/>
       <c r="CQ21" s="6"/>
@@ -4154,7 +4171,9 @@
       <c r="CM22" s="6">
         <v>2.2546517677957123E-3</v>
       </c>
-      <c r="CN22" s="6"/>
+      <c r="CN22" s="6">
+        <v>3.9717854906227146E-3</v>
+      </c>
       <c r="CO22" s="6"/>
       <c r="CP22" s="6"/>
       <c r="CQ22" s="6"/>
@@ -4587,7 +4606,9 @@
       <c r="CM23" s="6">
         <v>-1.4346218604085914E-2</v>
       </c>
-      <c r="CN23" s="6"/>
+      <c r="CN23" s="6">
+        <v>-6.3221477691975947E-3</v>
+      </c>
       <c r="CO23" s="6"/>
       <c r="CP23" s="6"/>
       <c r="CQ23" s="6"/>
@@ -5020,7 +5041,9 @@
       <c r="CM24" s="6">
         <v>1.6855363938916179E-2</v>
       </c>
-      <c r="CN24" s="6"/>
+      <c r="CN24" s="6">
+        <v>3.0301843949418483E-3</v>
+      </c>
       <c r="CO24" s="6"/>
       <c r="CP24" s="6"/>
       <c r="CQ24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -344,10 +344,13 @@
     <t>2°Q/4/2022</t>
   </si>
   <si>
-    <t>Última actualización:  05/24/2022</t>
-  </si>
-  <si>
     <t>1°Q/5/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  06/09/2022</t>
+  </si>
+  <si>
+    <t>2°Q/5/2022</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1127,9 +1130,11 @@
         <v>104</v>
       </c>
       <c r="CN15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CO15" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="CO15" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="CP15" s="3"/>
       <c r="CQ15" s="3"/>
       <c r="CR15" s="3"/>
@@ -1564,7 +1569,9 @@
       <c r="CN16" s="6">
         <v>1.2559410939001481E-3</v>
       </c>
-      <c r="CO16" s="6"/>
+      <c r="CO16" s="6">
+        <v>3.0170364175972075E-3</v>
+      </c>
       <c r="CP16" s="6"/>
       <c r="CQ16" s="6"/>
       <c r="CR16" s="6"/>
@@ -1999,7 +2006,9 @@
       <c r="CN17" s="6">
         <v>1.672442368539917E-3</v>
       </c>
-      <c r="CO17" s="6"/>
+      <c r="CO17" s="6">
+        <v>6.2799897715137831E-3</v>
+      </c>
       <c r="CP17" s="6"/>
       <c r="CQ17" s="6"/>
       <c r="CR17" s="6"/>
@@ -2434,7 +2443,9 @@
       <c r="CN18" s="6">
         <v>4.4044547914179333E-4</v>
       </c>
-      <c r="CO18" s="6"/>
+      <c r="CO18" s="6">
+        <v>1.0242587601079212E-3</v>
+      </c>
       <c r="CP18" s="6"/>
       <c r="CQ18" s="6"/>
       <c r="CR18" s="6"/>
@@ -2869,7 +2880,9 @@
       <c r="CN19" s="6">
         <v>1.0549994768598303E-3</v>
       </c>
-      <c r="CO19" s="6"/>
+      <c r="CO19" s="6">
+        <v>2.961337130811259E-4</v>
+      </c>
       <c r="CP19" s="6"/>
       <c r="CQ19" s="6"/>
       <c r="CR19" s="6"/>
@@ -3304,7 +3317,9 @@
       <c r="CN20" s="6">
         <v>-3.9357864038082058E-3</v>
       </c>
-      <c r="CO20" s="6"/>
+      <c r="CO20" s="6">
+        <v>-4.8679772531081689E-3</v>
+      </c>
       <c r="CP20" s="6"/>
       <c r="CQ20" s="6"/>
       <c r="CR20" s="6"/>
@@ -3739,7 +3754,9 @@
       <c r="CN21" s="6">
         <v>6.3132412616033751E-3</v>
       </c>
-      <c r="CO21" s="6"/>
+      <c r="CO21" s="6">
+        <v>4.5256699808762235E-3</v>
+      </c>
       <c r="CP21" s="6"/>
       <c r="CQ21" s="6"/>
       <c r="CR21" s="6"/>
@@ -4174,7 +4191,9 @@
       <c r="CN22" s="6">
         <v>3.9717854906227146E-3</v>
       </c>
-      <c r="CO22" s="6"/>
+      <c r="CO22" s="6">
+        <v>2.1750192879068653E-3</v>
+      </c>
       <c r="CP22" s="6"/>
       <c r="CQ22" s="6"/>
       <c r="CR22" s="6"/>
@@ -4609,7 +4628,9 @@
       <c r="CN23" s="6">
         <v>-6.3221477691975947E-3</v>
       </c>
-      <c r="CO23" s="6"/>
+      <c r="CO23" s="6">
+        <v>-3.2786594713385409E-4</v>
+      </c>
       <c r="CP23" s="6"/>
       <c r="CQ23" s="6"/>
       <c r="CR23" s="6"/>
@@ -5044,7 +5065,9 @@
       <c r="CN24" s="6">
         <v>3.0301843949418483E-3</v>
       </c>
-      <c r="CO24" s="6"/>
+      <c r="CO24" s="6">
+        <v>5.1911757817988402E-3</v>
+      </c>
       <c r="CP24" s="6"/>
       <c r="CQ24" s="6"/>
       <c r="CR24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -347,10 +347,16 @@
     <t>1°Q/5/2022</t>
   </si>
   <si>
-    <t>Última actualización:  06/09/2022</t>
-  </si>
-  <si>
     <t>2°Q/5/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  07/07/2022</t>
+  </si>
+  <si>
+    <t>1°Q/6/2022</t>
+  </si>
+  <si>
+    <t>2°Q/6/2022</t>
   </si>
 </sst>
 </file>
@@ -842,7 +848,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1133,10 +1139,14 @@
         <v>105</v>
       </c>
       <c r="CO15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CP15" s="3"/>
-      <c r="CQ15" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="CP15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CQ15" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="CR15" s="3"/>
       <c r="CS15" s="3"/>
       <c r="CT15" s="3"/>
@@ -1572,8 +1582,12 @@
       <c r="CO16" s="6">
         <v>3.0170364175972075E-3</v>
       </c>
-      <c r="CP16" s="6"/>
-      <c r="CQ16" s="6"/>
+      <c r="CP16" s="6">
+        <v>7.3646008729626455E-3</v>
+      </c>
+      <c r="CQ16" s="6">
+        <v>2.612724454938542E-3</v>
+      </c>
       <c r="CR16" s="6"/>
       <c r="CS16" s="6"/>
       <c r="CT16" s="6"/>
@@ -2009,8 +2023,12 @@
       <c r="CO17" s="6">
         <v>6.2799897715137831E-3</v>
       </c>
-      <c r="CP17" s="6"/>
-      <c r="CQ17" s="6"/>
+      <c r="CP17" s="6">
+        <v>8.4232082931605667E-3</v>
+      </c>
+      <c r="CQ17" s="6">
+        <v>6.2850197148023312E-3</v>
+      </c>
       <c r="CR17" s="6"/>
       <c r="CS17" s="6"/>
       <c r="CT17" s="6"/>
@@ -2446,8 +2464,12 @@
       <c r="CO18" s="6">
         <v>1.0242587601079212E-3</v>
       </c>
-      <c r="CP18" s="6"/>
-      <c r="CQ18" s="6"/>
+      <c r="CP18" s="6">
+        <v>6.5611144021398005E-3</v>
+      </c>
+      <c r="CQ18" s="6">
+        <v>-1.4632841410673558E-2</v>
+      </c>
       <c r="CR18" s="6"/>
       <c r="CS18" s="6"/>
       <c r="CT18" s="6"/>
@@ -2883,8 +2905,12 @@
       <c r="CO19" s="6">
         <v>2.961337130811259E-4</v>
       </c>
-      <c r="CP19" s="6"/>
-      <c r="CQ19" s="6"/>
+      <c r="CP19" s="6">
+        <v>7.3140787308334509E-4</v>
+      </c>
+      <c r="CQ19" s="6">
+        <v>1.7053710487162643E-3</v>
+      </c>
       <c r="CR19" s="6"/>
       <c r="CS19" s="6"/>
       <c r="CT19" s="6"/>
@@ -3320,8 +3346,12 @@
       <c r="CO20" s="6">
         <v>-4.8679772531081689E-3</v>
       </c>
-      <c r="CP20" s="6"/>
-      <c r="CQ20" s="6"/>
+      <c r="CP20" s="6">
+        <v>1.4988374172777652E-2</v>
+      </c>
+      <c r="CQ20" s="6">
+        <v>-2.0617466694861086E-3</v>
+      </c>
       <c r="CR20" s="6"/>
       <c r="CS20" s="6"/>
       <c r="CT20" s="6"/>
@@ -3757,8 +3787,12 @@
       <c r="CO21" s="6">
         <v>4.5256699808762235E-3</v>
       </c>
-      <c r="CP21" s="6"/>
-      <c r="CQ21" s="6"/>
+      <c r="CP21" s="6">
+        <v>1.0319935220440168E-2</v>
+      </c>
+      <c r="CQ21" s="6">
+        <v>-6.3094710275923838E-4</v>
+      </c>
       <c r="CR21" s="6"/>
       <c r="CS21" s="6"/>
       <c r="CT21" s="6"/>
@@ -4194,8 +4228,12 @@
       <c r="CO22" s="6">
         <v>2.1750192879068653E-3</v>
       </c>
-      <c r="CP22" s="6"/>
-      <c r="CQ22" s="6"/>
+      <c r="CP22" s="6">
+        <v>9.4837964669172159E-3</v>
+      </c>
+      <c r="CQ22" s="6">
+        <v>5.8412636600380097E-4</v>
+      </c>
       <c r="CR22" s="6"/>
       <c r="CS22" s="6"/>
       <c r="CT22" s="6"/>
@@ -4631,8 +4669,12 @@
       <c r="CO23" s="6">
         <v>-3.2786594713385409E-4</v>
       </c>
-      <c r="CP23" s="6"/>
-      <c r="CQ23" s="6"/>
+      <c r="CP23" s="6">
+        <v>7.3749711915187532E-3</v>
+      </c>
+      <c r="CQ23" s="6">
+        <v>6.9514105203882792E-4</v>
+      </c>
       <c r="CR23" s="6"/>
       <c r="CS23" s="6"/>
       <c r="CT23" s="6"/>
@@ -5068,8 +5110,12 @@
       <c r="CO24" s="6">
         <v>5.1911757817988402E-3</v>
       </c>
-      <c r="CP24" s="6"/>
-      <c r="CQ24" s="6"/>
+      <c r="CP24" s="6">
+        <v>1.0817989081053359E-2</v>
+      </c>
+      <c r="CQ24" s="6">
+        <v>9.2885679164105284E-3</v>
+      </c>
       <c r="CR24" s="6"/>
       <c r="CS24" s="6"/>
       <c r="CT24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -350,13 +350,19 @@
     <t>2°Q/5/2022</t>
   </si>
   <si>
-    <t>Última actualización:  07/07/2022</t>
-  </si>
-  <si>
     <t>1°Q/6/2022</t>
   </si>
   <si>
     <t>2°Q/6/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  08/09/2022</t>
+  </si>
+  <si>
+    <t>1°Q/7/2022</t>
+  </si>
+  <si>
+    <t>2°Q/7/2022</t>
   </si>
 </sst>
 </file>
@@ -848,7 +854,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1142,13 +1148,17 @@
         <v>106</v>
       </c>
       <c r="CP15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="CQ15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="CR15" s="3"/>
-      <c r="CS15" s="3"/>
+      <c r="CR15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS15" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="CT15" s="3"/>
       <c r="CU15" s="3"/>
       <c r="CV15" s="3"/>
@@ -1588,8 +1598,12 @@
       <c r="CQ16" s="6">
         <v>2.612724454938542E-3</v>
       </c>
-      <c r="CR16" s="6"/>
-      <c r="CS16" s="6"/>
+      <c r="CR16" s="6">
+        <v>4.9609517258122349E-3</v>
+      </c>
+      <c r="CS16" s="6">
+        <v>9.6635474882811323E-5</v>
+      </c>
       <c r="CT16" s="6"/>
       <c r="CU16" s="6"/>
       <c r="CV16" s="6"/>
@@ -2029,8 +2043,12 @@
       <c r="CQ17" s="6">
         <v>6.2850197148023312E-3</v>
       </c>
-      <c r="CR17" s="6"/>
-      <c r="CS17" s="6"/>
+      <c r="CR17" s="6">
+        <v>1.2697758006069204E-2</v>
+      </c>
+      <c r="CS17" s="6">
+        <v>5.0183278058990588E-4</v>
+      </c>
       <c r="CT17" s="6"/>
       <c r="CU17" s="6"/>
       <c r="CV17" s="6"/>
@@ -2470,8 +2488,12 @@
       <c r="CQ18" s="6">
         <v>-1.4632841410673558E-2</v>
       </c>
-      <c r="CR18" s="6"/>
-      <c r="CS18" s="6"/>
+      <c r="CR18" s="6">
+        <v>-2.7953739231159069E-2</v>
+      </c>
+      <c r="CS18" s="6">
+        <v>-1.07992366056886E-3</v>
+      </c>
       <c r="CT18" s="6"/>
       <c r="CU18" s="6"/>
       <c r="CV18" s="6"/>
@@ -2911,8 +2933,12 @@
       <c r="CQ19" s="6">
         <v>1.7053710487162643E-3</v>
       </c>
-      <c r="CR19" s="6"/>
-      <c r="CS19" s="6"/>
+      <c r="CR19" s="6">
+        <v>3.1356675671214695E-3</v>
+      </c>
+      <c r="CS19" s="6">
+        <v>-6.9271266278758681E-5</v>
+      </c>
       <c r="CT19" s="6"/>
       <c r="CU19" s="6"/>
       <c r="CV19" s="6"/>
@@ -3352,8 +3378,12 @@
       <c r="CQ20" s="6">
         <v>-2.0617466694861086E-3</v>
       </c>
-      <c r="CR20" s="6"/>
-      <c r="CS20" s="6"/>
+      <c r="CR20" s="6">
+        <v>5.1561865409404106E-3</v>
+      </c>
+      <c r="CS20" s="6">
+        <v>-7.5452804665953055E-3</v>
+      </c>
       <c r="CT20" s="6"/>
       <c r="CU20" s="6"/>
       <c r="CV20" s="6"/>
@@ -3793,8 +3823,12 @@
       <c r="CQ21" s="6">
         <v>-6.3094710275923838E-4</v>
       </c>
-      <c r="CR21" s="6"/>
-      <c r="CS21" s="6"/>
+      <c r="CR21" s="6">
+        <v>8.7961778005289926E-3</v>
+      </c>
+      <c r="CS21" s="6">
+        <v>-2.6725078441488526E-3</v>
+      </c>
       <c r="CT21" s="6"/>
       <c r="CU21" s="6"/>
       <c r="CV21" s="6"/>
@@ -4234,8 +4268,12 @@
       <c r="CQ22" s="6">
         <v>5.8412636600380097E-4</v>
       </c>
-      <c r="CR22" s="6"/>
-      <c r="CS22" s="6"/>
+      <c r="CR22" s="6">
+        <v>1.3216251935814771E-3</v>
+      </c>
+      <c r="CS22" s="6">
+        <v>3.7248169981214385E-3</v>
+      </c>
       <c r="CT22" s="6"/>
       <c r="CU22" s="6"/>
       <c r="CV22" s="6"/>
@@ -4675,8 +4713,12 @@
       <c r="CQ23" s="6">
         <v>6.9514105203882792E-4</v>
       </c>
-      <c r="CR23" s="6"/>
-      <c r="CS23" s="6"/>
+      <c r="CR23" s="6">
+        <v>3.0775994724114852E-3</v>
+      </c>
+      <c r="CS23" s="6">
+        <v>-4.0850317773395428E-3</v>
+      </c>
       <c r="CT23" s="6"/>
       <c r="CU23" s="6"/>
       <c r="CV23" s="6"/>
@@ -5116,8 +5158,12 @@
       <c r="CQ24" s="6">
         <v>9.2885679164105284E-3</v>
       </c>
-      <c r="CR24" s="6"/>
-      <c r="CS24" s="6"/>
+      <c r="CR24" s="6">
+        <v>-4.0344373482326112E-4</v>
+      </c>
+      <c r="CS24" s="6">
+        <v>4.3559048402328493E-3</v>
+      </c>
       <c r="CT24" s="6"/>
       <c r="CU24" s="6"/>
       <c r="CV24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -356,13 +356,19 @@
     <t>2°Q/6/2022</t>
   </si>
   <si>
-    <t>Última actualización:  08/09/2022</t>
-  </si>
-  <si>
     <t>1°Q/7/2022</t>
   </si>
   <si>
     <t>2°Q/7/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  09/08/2022</t>
+  </si>
+  <si>
+    <t>1°Q/8/2022</t>
+  </si>
+  <si>
+    <t>2°Q/8/2022</t>
   </si>
 </sst>
 </file>
@@ -854,7 +860,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1154,13 +1160,17 @@
         <v>108</v>
       </c>
       <c r="CR15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="CS15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CS15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CT15" s="3"/>
-      <c r="CU15" s="3"/>
+      <c r="CT15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="CU15" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="CV15" s="3"/>
       <c r="CW15" s="3"/>
       <c r="CX15" s="3"/>
@@ -1604,8 +1614,12 @@
       <c r="CS16" s="6">
         <v>9.6635474882811323E-5</v>
       </c>
-      <c r="CT16" s="6"/>
-      <c r="CU16" s="6"/>
+      <c r="CT16" s="6">
+        <v>3.148401642644405E-3</v>
+      </c>
+      <c r="CU16" s="6">
+        <v>1.9425112978703751E-3</v>
+      </c>
       <c r="CV16" s="6"/>
       <c r="CW16" s="6"/>
       <c r="CX16" s="6"/>
@@ -2049,8 +2063,12 @@
       <c r="CS17" s="6">
         <v>5.0183278058990588E-4</v>
       </c>
-      <c r="CT17" s="6"/>
-      <c r="CU17" s="6"/>
+      <c r="CT17" s="6">
+        <v>3.1766801148549462E-3</v>
+      </c>
+      <c r="CU17" s="6">
+        <v>9.7172504746305677E-3</v>
+      </c>
       <c r="CV17" s="6"/>
       <c r="CW17" s="6"/>
       <c r="CX17" s="6"/>
@@ -2494,8 +2512,12 @@
       <c r="CS18" s="6">
         <v>-1.07992366056886E-3</v>
       </c>
-      <c r="CT18" s="6"/>
-      <c r="CU18" s="6"/>
+      <c r="CT18" s="6">
+        <v>1.5573304504235663E-2</v>
+      </c>
+      <c r="CU18" s="6">
+        <v>9.0300082591538988E-3</v>
+      </c>
       <c r="CV18" s="6"/>
       <c r="CW18" s="6"/>
       <c r="CX18" s="6"/>
@@ -2939,8 +2961,12 @@
       <c r="CS19" s="6">
         <v>-6.9271266278758681E-5</v>
       </c>
-      <c r="CT19" s="6"/>
-      <c r="CU19" s="6"/>
+      <c r="CT19" s="6">
+        <v>-8.8326983027364747E-4</v>
+      </c>
+      <c r="CU19" s="6">
+        <v>-4.6629340082164905E-3</v>
+      </c>
       <c r="CV19" s="6"/>
       <c r="CW19" s="6"/>
       <c r="CX19" s="6"/>
@@ -3384,8 +3410,12 @@
       <c r="CS20" s="6">
         <v>-7.5452804665953055E-3</v>
       </c>
-      <c r="CT20" s="6"/>
-      <c r="CU20" s="6"/>
+      <c r="CT20" s="6">
+        <v>4.0889659872374029E-3</v>
+      </c>
+      <c r="CU20" s="6">
+        <v>-2.1860042838632854E-3</v>
+      </c>
       <c r="CV20" s="6"/>
       <c r="CW20" s="6"/>
       <c r="CX20" s="6"/>
@@ -3829,8 +3859,12 @@
       <c r="CS21" s="6">
         <v>-2.6725078441488526E-3</v>
       </c>
-      <c r="CT21" s="6"/>
-      <c r="CU21" s="6"/>
+      <c r="CT21" s="6">
+        <v>1.2100911596353736E-2</v>
+      </c>
+      <c r="CU21" s="6">
+        <v>-4.5663248206984086E-3</v>
+      </c>
       <c r="CV21" s="6"/>
       <c r="CW21" s="6"/>
       <c r="CX21" s="6"/>
@@ -4274,8 +4308,12 @@
       <c r="CS22" s="6">
         <v>3.7248169981214385E-3</v>
       </c>
-      <c r="CT22" s="6"/>
-      <c r="CU22" s="6"/>
+      <c r="CT22" s="6">
+        <v>1.7748233244052614E-4</v>
+      </c>
+      <c r="CU22" s="6">
+        <v>-1.637387278388025E-3</v>
+      </c>
       <c r="CV22" s="6"/>
       <c r="CW22" s="6"/>
       <c r="CX22" s="6"/>
@@ -4719,8 +4757,12 @@
       <c r="CS23" s="6">
         <v>-4.0850317773395428E-3</v>
       </c>
-      <c r="CT23" s="6"/>
-      <c r="CU23" s="6"/>
+      <c r="CT23" s="6">
+        <v>5.1932505347287439E-3</v>
+      </c>
+      <c r="CU23" s="6">
+        <v>-5.3678228355764634E-3</v>
+      </c>
       <c r="CV23" s="6"/>
       <c r="CW23" s="6"/>
       <c r="CX23" s="6"/>
@@ -5164,8 +5206,12 @@
       <c r="CS24" s="6">
         <v>4.3559048402328493E-3</v>
       </c>
-      <c r="CT24" s="6"/>
-      <c r="CU24" s="6"/>
+      <c r="CT24" s="6">
+        <v>1.3723765619311212E-3</v>
+      </c>
+      <c r="CU24" s="6">
+        <v>2.983289038305692E-3</v>
+      </c>
       <c r="CV24" s="6"/>
       <c r="CW24" s="6"/>
       <c r="CX24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -362,13 +362,25 @@
     <t>2°Q/7/2022</t>
   </si>
   <si>
-    <t>Última actualización:  09/08/2022</t>
-  </si>
-  <si>
     <t>1°Q/8/2022</t>
   </si>
   <si>
     <t>2°Q/8/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  11/09/2022</t>
+  </si>
+  <si>
+    <t>1°Q/9/2022</t>
+  </si>
+  <si>
+    <t>2°Q/9/2022</t>
+  </si>
+  <si>
+    <t>1°Q/10/2022</t>
+  </si>
+  <si>
+    <t>2°Q/10/2022</t>
   </si>
 </sst>
 </file>
@@ -860,7 +872,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1166,15 +1178,23 @@
         <v>110</v>
       </c>
       <c r="CT15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="CU15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CU15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CV15" s="3"/>
-      <c r="CW15" s="3"/>
-      <c r="CX15" s="3"/>
-      <c r="CY15" s="3"/>
+      <c r="CV15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="CX15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="CY15" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="CZ15" s="3"/>
       <c r="DA15" s="3"/>
       <c r="DB15" s="3"/>
@@ -1620,10 +1640,18 @@
       <c r="CU16" s="6">
         <v>1.9425112978703751E-3</v>
       </c>
-      <c r="CV16" s="6"/>
-      <c r="CW16" s="6"/>
-      <c r="CX16" s="6"/>
-      <c r="CY16" s="6"/>
+      <c r="CV16" s="6">
+        <v>3.2045376252773927E-3</v>
+      </c>
+      <c r="CW16" s="6">
+        <v>2.1401819154627244E-3</v>
+      </c>
+      <c r="CX16" s="6">
+        <v>2.6456080515733227E-3</v>
+      </c>
+      <c r="CY16" s="6">
+        <v>3.5764526358457172E-3</v>
+      </c>
       <c r="CZ16" s="6"/>
       <c r="DA16" s="6"/>
       <c r="DB16" s="6"/>
@@ -2069,10 +2097,18 @@
       <c r="CU17" s="6">
         <v>9.7172504746305677E-3</v>
       </c>
-      <c r="CV17" s="6"/>
-      <c r="CW17" s="6"/>
-      <c r="CX17" s="6"/>
-      <c r="CY17" s="6"/>
+      <c r="CV17" s="6">
+        <v>5.1312229534314913E-3</v>
+      </c>
+      <c r="CW17" s="6">
+        <v>6.6900855359923739E-3</v>
+      </c>
+      <c r="CX17" s="6">
+        <v>2.2483066775418337E-3</v>
+      </c>
+      <c r="CY17" s="6">
+        <v>7.8620357789853657E-3</v>
+      </c>
       <c r="CZ17" s="6"/>
       <c r="DA17" s="6"/>
       <c r="DB17" s="6"/>
@@ -2518,10 +2554,18 @@
       <c r="CU18" s="6">
         <v>9.0300082591538988E-3</v>
       </c>
-      <c r="CV18" s="6"/>
-      <c r="CW18" s="6"/>
-      <c r="CX18" s="6"/>
-      <c r="CY18" s="6"/>
+      <c r="CV18" s="6">
+        <v>1.792567801080458E-2</v>
+      </c>
+      <c r="CW18" s="6">
+        <v>1.5027920482465928E-2</v>
+      </c>
+      <c r="CX18" s="6">
+        <v>7.2090628218330899E-3</v>
+      </c>
+      <c r="CY18" s="6">
+        <v>5.7417020607204439E-3</v>
+      </c>
       <c r="CZ18" s="6"/>
       <c r="DA18" s="6"/>
       <c r="DB18" s="6"/>
@@ -2967,10 +3011,18 @@
       <c r="CU19" s="6">
         <v>-4.6629340082164905E-3</v>
       </c>
-      <c r="CV19" s="6"/>
-      <c r="CW19" s="6"/>
-      <c r="CX19" s="6"/>
-      <c r="CY19" s="6"/>
+      <c r="CV19" s="6">
+        <v>2.9954719609892599E-3</v>
+      </c>
+      <c r="CW19" s="6">
+        <v>-6.2769134602027599E-3</v>
+      </c>
+      <c r="CX19" s="6">
+        <v>-5.0322817378845031E-3</v>
+      </c>
+      <c r="CY19" s="6">
+        <v>-1.8000614655134806E-3</v>
+      </c>
       <c r="CZ19" s="6"/>
       <c r="DA19" s="6"/>
       <c r="DB19" s="6"/>
@@ -3416,10 +3468,18 @@
       <c r="CU20" s="6">
         <v>-2.1860042838632854E-3</v>
       </c>
-      <c r="CV20" s="6"/>
-      <c r="CW20" s="6"/>
-      <c r="CX20" s="6"/>
-      <c r="CY20" s="6"/>
+      <c r="CV20" s="6">
+        <v>3.5070361569244923E-3</v>
+      </c>
+      <c r="CW20" s="6">
+        <v>3.7500660222891113E-3</v>
+      </c>
+      <c r="CX20" s="6">
+        <v>5.8584157721179864E-3</v>
+      </c>
+      <c r="CY20" s="6">
+        <v>4.8913612108953952E-3</v>
+      </c>
       <c r="CZ20" s="6"/>
       <c r="DA20" s="6"/>
       <c r="DB20" s="6"/>
@@ -3865,10 +3925,18 @@
       <c r="CU21" s="6">
         <v>-4.5663248206984086E-3</v>
       </c>
-      <c r="CV21" s="6"/>
-      <c r="CW21" s="6"/>
-      <c r="CX21" s="6"/>
-      <c r="CY21" s="6"/>
+      <c r="CV21" s="6">
+        <v>-1.6834024931191571E-3</v>
+      </c>
+      <c r="CW21" s="6">
+        <v>-1.1044879307292588E-3</v>
+      </c>
+      <c r="CX21" s="6">
+        <v>7.7399642121611656E-3</v>
+      </c>
+      <c r="CY21" s="6">
+        <v>-2.4624559228765275E-3</v>
+      </c>
       <c r="CZ21" s="6"/>
       <c r="DA21" s="6"/>
       <c r="DB21" s="6"/>
@@ -4314,10 +4382,18 @@
       <c r="CU22" s="6">
         <v>-1.637387278388025E-3</v>
       </c>
-      <c r="CV22" s="6"/>
-      <c r="CW22" s="6"/>
-      <c r="CX22" s="6"/>
-      <c r="CY22" s="6"/>
+      <c r="CV22" s="6">
+        <v>-1.7774187032922883E-3</v>
+      </c>
+      <c r="CW22" s="6">
+        <v>-1.3920925903444514E-3</v>
+      </c>
+      <c r="CX22" s="6">
+        <v>3.1122601979203246E-3</v>
+      </c>
+      <c r="CY22" s="6">
+        <v>1.9391275541935649E-4</v>
+      </c>
       <c r="CZ22" s="6"/>
       <c r="DA22" s="6"/>
       <c r="DB22" s="6"/>
@@ -4763,10 +4839,18 @@
       <c r="CU23" s="6">
         <v>-5.3678228355764634E-3</v>
       </c>
-      <c r="CV23" s="6"/>
-      <c r="CW23" s="6"/>
-      <c r="CX23" s="6"/>
-      <c r="CY23" s="6"/>
+      <c r="CV23" s="6">
+        <v>5.5024386808233405E-3</v>
+      </c>
+      <c r="CW23" s="6">
+        <v>-3.4147323812938613E-4</v>
+      </c>
+      <c r="CX23" s="6">
+        <v>7.20842238026842E-3</v>
+      </c>
+      <c r="CY23" s="6">
+        <v>3.8001652245749362E-3</v>
+      </c>
       <c r="CZ23" s="6"/>
       <c r="DA23" s="6"/>
       <c r="DB23" s="6"/>
@@ -5212,10 +5296,18 @@
       <c r="CU24" s="6">
         <v>2.983289038305692E-3</v>
       </c>
-      <c r="CV24" s="6"/>
-      <c r="CW24" s="6"/>
-      <c r="CX24" s="6"/>
-      <c r="CY24" s="6"/>
+      <c r="CV24" s="6">
+        <v>-3.148048889123789E-3</v>
+      </c>
+      <c r="CW24" s="6">
+        <v>6.9066840343516844E-3</v>
+      </c>
+      <c r="CX24" s="6">
+        <v>9.4165074685239603E-3</v>
+      </c>
+      <c r="CY24" s="6">
+        <v>6.6537515833395844E-3</v>
+      </c>
       <c r="CZ24" s="6"/>
       <c r="DA24" s="6"/>
       <c r="DB24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -368,9 +368,6 @@
     <t>2°Q/8/2022</t>
   </si>
   <si>
-    <t>Última actualización:  11/09/2022</t>
-  </si>
-  <si>
     <t>1°Q/9/2022</t>
   </si>
   <si>
@@ -381,6 +378,21 @@
   </si>
   <si>
     <t>2°Q/10/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  01/09/2023</t>
+  </si>
+  <si>
+    <t>1°Q/11/2022</t>
+  </si>
+  <si>
+    <t>2°Q/11/2022</t>
+  </si>
+  <si>
+    <t>1°Q/12/2022</t>
+  </si>
+  <si>
+    <t>2°Q/12/2022</t>
   </si>
 </sst>
 </file>
@@ -872,7 +884,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1184,21 +1196,29 @@
         <v>112</v>
       </c>
       <c r="CV15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="CW15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CW15" s="3" t="s">
+      <c r="CX15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CX15" s="3" t="s">
+      <c r="CY15" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CY15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CZ15" s="3"/>
-      <c r="DA15" s="3"/>
-      <c r="DB15" s="3"/>
-      <c r="DC15" s="3"/>
+      <c r="CZ15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="DA15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="DB15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="DC15" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="DD15" s="3"/>
       <c r="DE15" s="3"/>
       <c r="DF15" s="3"/>
@@ -1652,10 +1672,18 @@
       <c r="CY16" s="6">
         <v>3.5764526358457172E-3</v>
       </c>
-      <c r="CZ16" s="6"/>
-      <c r="DA16" s="6"/>
-      <c r="DB16" s="6"/>
-      <c r="DC16" s="6"/>
+      <c r="CZ16" s="6">
+        <v>2.9618366555004272E-3</v>
+      </c>
+      <c r="DA16" s="6">
+        <v>-4.0901087274076708E-3</v>
+      </c>
+      <c r="DB16" s="6">
+        <v>6.5488507797570872E-3</v>
+      </c>
+      <c r="DC16" s="6">
+        <v>4.6473159781013074E-4</v>
+      </c>
       <c r="DD16" s="6"/>
       <c r="DE16" s="6"/>
       <c r="DF16" s="6"/>
@@ -2109,10 +2137,18 @@
       <c r="CY17" s="6">
         <v>7.8620357789853657E-3</v>
       </c>
-      <c r="CZ17" s="6"/>
-      <c r="DA17" s="6"/>
-      <c r="DB17" s="6"/>
-      <c r="DC17" s="6"/>
+      <c r="CZ17" s="6">
+        <v>8.0745385225711175E-4</v>
+      </c>
+      <c r="DA17" s="6">
+        <v>-2.4133915166483222E-3</v>
+      </c>
+      <c r="DB17" s="6">
+        <v>9.1776024304823789E-3</v>
+      </c>
+      <c r="DC17" s="6">
+        <v>3.8676227708904776E-3</v>
+      </c>
       <c r="DD17" s="6"/>
       <c r="DE17" s="6"/>
       <c r="DF17" s="6"/>
@@ -2566,10 +2602,18 @@
       <c r="CY18" s="6">
         <v>5.7417020607204439E-3</v>
       </c>
-      <c r="CZ18" s="6"/>
-      <c r="DA18" s="6"/>
-      <c r="DB18" s="6"/>
-      <c r="DC18" s="6"/>
+      <c r="CZ18" s="6">
+        <v>5.3874160388589498E-3</v>
+      </c>
+      <c r="DA18" s="6">
+        <v>-9.7663846226978546E-3</v>
+      </c>
+      <c r="DB18" s="6">
+        <v>6.2056505459402445E-3</v>
+      </c>
+      <c r="DC18" s="6">
+        <v>1.3358315117448782E-3</v>
+      </c>
       <c r="DD18" s="6"/>
       <c r="DE18" s="6"/>
       <c r="DF18" s="6"/>
@@ -3023,10 +3067,18 @@
       <c r="CY19" s="6">
         <v>-1.8000614655134806E-3</v>
       </c>
-      <c r="CZ19" s="6"/>
-      <c r="DA19" s="6"/>
-      <c r="DB19" s="6"/>
-      <c r="DC19" s="6"/>
+      <c r="CZ19" s="6">
+        <v>-1.9088669950739767E-3</v>
+      </c>
+      <c r="DA19" s="6">
+        <v>-6.1694120550237486E-5</v>
+      </c>
+      <c r="DB19" s="6">
+        <v>-2.6618248483993856E-3</v>
+      </c>
+      <c r="DC19" s="6">
+        <v>-4.5071318733760357E-3</v>
+      </c>
       <c r="DD19" s="6"/>
       <c r="DE19" s="6"/>
       <c r="DF19" s="6"/>
@@ -3480,10 +3532,18 @@
       <c r="CY20" s="6">
         <v>4.8913612108953952E-3</v>
       </c>
-      <c r="CZ20" s="6"/>
-      <c r="DA20" s="6"/>
-      <c r="DB20" s="6"/>
-      <c r="DC20" s="6"/>
+      <c r="CZ20" s="6">
+        <v>1.4628686455016249E-2</v>
+      </c>
+      <c r="DA20" s="6">
+        <v>-2.0754410419107305E-2</v>
+      </c>
+      <c r="DB20" s="6">
+        <v>2.3621978482604389E-2</v>
+      </c>
+      <c r="DC20" s="6">
+        <v>-3.8390335872783288E-3</v>
+      </c>
       <c r="DD20" s="6"/>
       <c r="DE20" s="6"/>
       <c r="DF20" s="6"/>
@@ -3937,10 +3997,18 @@
       <c r="CY21" s="6">
         <v>-2.4624559228765275E-3</v>
       </c>
-      <c r="CZ21" s="6"/>
-      <c r="DA21" s="6"/>
-      <c r="DB21" s="6"/>
-      <c r="DC21" s="6"/>
+      <c r="CZ21" s="6">
+        <v>9.1772391036026857E-3</v>
+      </c>
+      <c r="DA21" s="6">
+        <v>-6.7225772097976311E-3</v>
+      </c>
+      <c r="DB21" s="6">
+        <v>1.3083830329022383E-2</v>
+      </c>
+      <c r="DC21" s="6">
+        <v>4.2746349610569556E-3</v>
+      </c>
       <c r="DD21" s="6"/>
       <c r="DE21" s="6"/>
       <c r="DF21" s="6"/>
@@ -4394,10 +4462,18 @@
       <c r="CY22" s="6">
         <v>1.9391275541935649E-4</v>
       </c>
-      <c r="CZ22" s="6"/>
-      <c r="DA22" s="6"/>
-      <c r="DB22" s="6"/>
-      <c r="DC22" s="6"/>
+      <c r="CZ22" s="6">
+        <v>5.6546921827920205E-3</v>
+      </c>
+      <c r="DA22" s="6">
+        <v>-8.9002417845467363E-3</v>
+      </c>
+      <c r="DB22" s="6">
+        <v>5.1141567314783032E-3</v>
+      </c>
+      <c r="DC22" s="6">
+        <v>2.9190252713404696E-3</v>
+      </c>
       <c r="DD22" s="6"/>
       <c r="DE22" s="6"/>
       <c r="DF22" s="6"/>
@@ -4851,10 +4927,18 @@
       <c r="CY23" s="6">
         <v>3.8001652245749362E-3</v>
       </c>
-      <c r="CZ23" s="6"/>
-      <c r="DA23" s="6"/>
-      <c r="DB23" s="6"/>
-      <c r="DC23" s="6"/>
+      <c r="CZ23" s="6">
+        <v>6.3413958001248272E-3</v>
+      </c>
+      <c r="DA23" s="6">
+        <v>-6.206742192073289E-3</v>
+      </c>
+      <c r="DB23" s="6">
+        <v>8.5929852827801856E-3</v>
+      </c>
+      <c r="DC23" s="6">
+        <v>-1.0435006656074219E-2</v>
+      </c>
       <c r="DD23" s="6"/>
       <c r="DE23" s="6"/>
       <c r="DF23" s="6"/>
@@ -5308,10 +5392,18 @@
       <c r="CY24" s="6">
         <v>6.6537515833395844E-3</v>
       </c>
-      <c r="CZ24" s="6"/>
-      <c r="DA24" s="6"/>
-      <c r="DB24" s="6"/>
-      <c r="DC24" s="6"/>
+      <c r="CZ24" s="6">
+        <v>4.1967979985639836E-3</v>
+      </c>
+      <c r="DA24" s="6">
+        <v>2.0785730080343789E-3</v>
+      </c>
+      <c r="DB24" s="6">
+        <v>4.2441449923502628E-3</v>
+      </c>
+      <c r="DC24" s="6">
+        <v>4.2701550586321524E-3</v>
+      </c>
       <c r="DD24" s="6"/>
       <c r="DE24" s="6"/>
       <c r="DF24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -380,9 +380,6 @@
     <t>2°Q/10/2022</t>
   </si>
   <si>
-    <t>Última actualización:  01/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/11/2022</t>
   </si>
   <si>
@@ -393,6 +390,15 @@
   </si>
   <si>
     <t>2°Q/12/2022</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/09/2023</t>
+  </si>
+  <si>
+    <t>1°Q/1/2023</t>
+  </si>
+  <si>
+    <t>2°Q/1/2023</t>
   </si>
 </sst>
 </file>
@@ -884,7 +890,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1208,19 +1214,23 @@
         <v>116</v>
       </c>
       <c r="CZ15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="DA15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="DA15" s="3" t="s">
+      <c r="DB15" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="DB15" s="3" t="s">
+      <c r="DC15" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="DC15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="DD15" s="3"/>
-      <c r="DE15" s="3"/>
+      <c r="DD15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="DE15" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="DF15" s="3"/>
       <c r="DG15" s="3"/>
       <c r="DH15" s="3"/>
@@ -1684,8 +1694,12 @@
       <c r="DC16" s="6">
         <v>4.6473159781013074E-4</v>
       </c>
-      <c r="DD16" s="6"/>
-      <c r="DE16" s="6"/>
+      <c r="DD16" s="6">
+        <v>5.251389610594126E-3</v>
+      </c>
+      <c r="DE16" s="6">
+        <v>4.2136261464116309E-3</v>
+      </c>
       <c r="DF16" s="6"/>
       <c r="DG16" s="6"/>
       <c r="DH16" s="6"/>
@@ -2149,8 +2163,12 @@
       <c r="DC17" s="6">
         <v>3.8676227708904776E-3</v>
       </c>
-      <c r="DD17" s="6"/>
-      <c r="DE17" s="6"/>
+      <c r="DD17" s="6">
+        <v>5.5604148444332591E-3</v>
+      </c>
+      <c r="DE17" s="6">
+        <v>4.3146594870733246E-3</v>
+      </c>
       <c r="DF17" s="6"/>
       <c r="DG17" s="6"/>
       <c r="DH17" s="6"/>
@@ -2614,8 +2632,12 @@
       <c r="DC18" s="6">
         <v>1.3358315117448782E-3</v>
       </c>
-      <c r="DD18" s="6"/>
-      <c r="DE18" s="6"/>
+      <c r="DD18" s="6">
+        <v>-3.5343647672343437E-3</v>
+      </c>
+      <c r="DE18" s="6">
+        <v>6.8764670086063351E-3</v>
+      </c>
       <c r="DF18" s="6"/>
       <c r="DG18" s="6"/>
       <c r="DH18" s="6"/>
@@ -3079,8 +3101,12 @@
       <c r="DC19" s="6">
         <v>-4.5071318733760357E-3</v>
       </c>
-      <c r="DD19" s="6"/>
-      <c r="DE19" s="6"/>
+      <c r="DD19" s="6">
+        <v>4.9003941621390545E-3</v>
+      </c>
+      <c r="DE19" s="6">
+        <v>8.0126506236968265E-3</v>
+      </c>
       <c r="DF19" s="6"/>
       <c r="DG19" s="6"/>
       <c r="DH19" s="6"/>
@@ -3544,8 +3570,12 @@
       <c r="DC20" s="6">
         <v>-3.8390335872783288E-3</v>
       </c>
-      <c r="DD20" s="6"/>
-      <c r="DE20" s="6"/>
+      <c r="DD20" s="6">
+        <v>3.9223410723920882E-3</v>
+      </c>
+      <c r="DE20" s="6">
+        <v>-2.013222435487183E-3</v>
+      </c>
       <c r="DF20" s="6"/>
       <c r="DG20" s="6"/>
       <c r="DH20" s="6"/>
@@ -4009,8 +4039,12 @@
       <c r="DC21" s="6">
         <v>4.2746349610569556E-3</v>
       </c>
-      <c r="DD21" s="6"/>
-      <c r="DE21" s="6"/>
+      <c r="DD21" s="6">
+        <v>1.4638202580209647E-2</v>
+      </c>
+      <c r="DE21" s="6">
+        <v>-4.1788041317418756E-3</v>
+      </c>
       <c r="DF21" s="6"/>
       <c r="DG21" s="6"/>
       <c r="DH21" s="6"/>
@@ -4474,8 +4508,12 @@
       <c r="DC22" s="6">
         <v>2.9190252713404696E-3</v>
       </c>
-      <c r="DD22" s="6"/>
-      <c r="DE22" s="6"/>
+      <c r="DD22" s="6">
+        <v>1.5919469994210012E-3</v>
+      </c>
+      <c r="DE22" s="6">
+        <v>3.018286319777852E-3</v>
+      </c>
       <c r="DF22" s="6"/>
       <c r="DG22" s="6"/>
       <c r="DH22" s="6"/>
@@ -4939,8 +4977,12 @@
       <c r="DC23" s="6">
         <v>-1.0435006656074219E-2</v>
       </c>
-      <c r="DD23" s="6"/>
-      <c r="DE23" s="6"/>
+      <c r="DD23" s="6">
+        <v>-1.3539316090956932E-3</v>
+      </c>
+      <c r="DE23" s="6">
+        <v>5.8576096780922349E-3</v>
+      </c>
       <c r="DF23" s="6"/>
       <c r="DG23" s="6"/>
       <c r="DH23" s="6"/>
@@ -5404,8 +5446,12 @@
       <c r="DC24" s="6">
         <v>4.2701550586321524E-3</v>
       </c>
-      <c r="DD24" s="6"/>
-      <c r="DE24" s="6"/>
+      <c r="DD24" s="6">
+        <v>1.4761654705642169E-2</v>
+      </c>
+      <c r="DE24" s="6">
+        <v>3.4426747930083046E-3</v>
+      </c>
       <c r="DF24" s="6"/>
       <c r="DG24" s="6"/>
       <c r="DH24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -392,13 +392,16 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  02/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
     <t>2°Q/1/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  02/23/2023</t>
+  </si>
+  <si>
+    <t>1°Q/2/2023</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1226,12 +1229,14 @@
         <v>120</v>
       </c>
       <c r="DD15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="DE15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DE15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="DF15" s="3"/>
+      <c r="DF15" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="DG15" s="3"/>
       <c r="DH15" s="3"/>
       <c r="DI15" s="3"/>
@@ -1700,7 +1705,9 @@
       <c r="DE16" s="6">
         <v>4.2136261464116309E-3</v>
       </c>
-      <c r="DF16" s="6"/>
+      <c r="DF16" s="6">
+        <v>4.0399628760168227E-3</v>
+      </c>
       <c r="DG16" s="6"/>
       <c r="DH16" s="6"/>
       <c r="DI16" s="6"/>
@@ -2169,7 +2176,9 @@
       <c r="DE17" s="6">
         <v>4.3146594870733246E-3</v>
       </c>
-      <c r="DF17" s="6"/>
+      <c r="DF17" s="6">
+        <v>1.2166620841354003E-3</v>
+      </c>
       <c r="DG17" s="6"/>
       <c r="DH17" s="6"/>
       <c r="DI17" s="6"/>
@@ -2638,7 +2647,9 @@
       <c r="DE18" s="6">
         <v>6.8764670086063351E-3</v>
       </c>
-      <c r="DF18" s="6"/>
+      <c r="DF18" s="6">
+        <v>1.041261947315264E-2</v>
+      </c>
       <c r="DG18" s="6"/>
       <c r="DH18" s="6"/>
       <c r="DI18" s="6"/>
@@ -3107,7 +3118,9 @@
       <c r="DE19" s="6">
         <v>8.0126506236968265E-3</v>
       </c>
-      <c r="DF19" s="6"/>
+      <c r="DF19" s="6">
+        <v>4.3732417202002605E-3</v>
+      </c>
       <c r="DG19" s="6"/>
       <c r="DH19" s="6"/>
       <c r="DI19" s="6"/>
@@ -3576,7 +3589,9 @@
       <c r="DE20" s="6">
         <v>-2.013222435487183E-3</v>
       </c>
-      <c r="DF20" s="6"/>
+      <c r="DF20" s="6">
+        <v>1.6522920958380594E-2</v>
+      </c>
       <c r="DG20" s="6"/>
       <c r="DH20" s="6"/>
       <c r="DI20" s="6"/>
@@ -4045,7 +4060,9 @@
       <c r="DE21" s="6">
         <v>-4.1788041317418756E-3</v>
       </c>
-      <c r="DF21" s="6"/>
+      <c r="DF21" s="6">
+        <v>1.3273470984143554E-2</v>
+      </c>
       <c r="DG21" s="6"/>
       <c r="DH21" s="6"/>
       <c r="DI21" s="6"/>
@@ -4514,7 +4531,9 @@
       <c r="DE22" s="6">
         <v>3.018286319777852E-3</v>
       </c>
-      <c r="DF22" s="6"/>
+      <c r="DF22" s="6">
+        <v>7.2829131652651924E-4</v>
+      </c>
       <c r="DG22" s="6"/>
       <c r="DH22" s="6"/>
       <c r="DI22" s="6"/>
@@ -4983,7 +5002,9 @@
       <c r="DE23" s="6">
         <v>5.8576096780922349E-3</v>
       </c>
-      <c r="DF23" s="6"/>
+      <c r="DF23" s="6">
+        <v>5.6247731946292845E-3</v>
+      </c>
       <c r="DG23" s="6"/>
       <c r="DH23" s="6"/>
       <c r="DI23" s="6"/>
@@ -5452,7 +5473,9 @@
       <c r="DE24" s="6">
         <v>3.4426747930083046E-3</v>
       </c>
-      <c r="DF24" s="6"/>
+      <c r="DF24" s="6">
+        <v>1.4325108333630432E-3</v>
+      </c>
       <c r="DG24" s="6"/>
       <c r="DH24" s="6"/>
       <c r="DI24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -392,16 +392,19 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
+    <t>Última actualización:  03/09/2023</t>
+  </si>
+  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
     <t>2°Q/1/2023</t>
   </si>
   <si>
-    <t>Última actualización:  02/23/2023</t>
-  </si>
-  <si>
     <t>1°Q/2/2023</t>
+  </si>
+  <si>
+    <t>2°Q/2/2023</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1229,15 +1232,17 @@
         <v>120</v>
       </c>
       <c r="DD15" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DE15" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="DF15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DG15" s="3"/>
+      <c r="DG15" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="DH15" s="3"/>
       <c r="DI15" s="3"/>
       <c r="DJ15" s="3"/>
@@ -1708,7 +1713,9 @@
       <c r="DF16" s="6">
         <v>4.0399628760168227E-3</v>
       </c>
-      <c r="DG16" s="6"/>
+      <c r="DG16" s="6">
+        <v>1.0874884454354916E-3</v>
+      </c>
       <c r="DH16" s="6"/>
       <c r="DI16" s="6"/>
       <c r="DJ16" s="6"/>
@@ -2179,7 +2186,9 @@
       <c r="DF17" s="6">
         <v>1.2166620841354003E-3</v>
       </c>
-      <c r="DG17" s="6"/>
+      <c r="DG17" s="6">
+        <v>3.7622633996305943E-3</v>
+      </c>
       <c r="DH17" s="6"/>
       <c r="DI17" s="6"/>
       <c r="DJ17" s="6"/>
@@ -2650,7 +2659,9 @@
       <c r="DF18" s="6">
         <v>1.041261947315264E-2</v>
       </c>
-      <c r="DG18" s="6"/>
+      <c r="DG18" s="6">
+        <v>-7.3487314893144751E-3</v>
+      </c>
       <c r="DH18" s="6"/>
       <c r="DI18" s="6"/>
       <c r="DJ18" s="6"/>
@@ -3121,7 +3132,9 @@
       <c r="DF19" s="6">
         <v>4.3732417202002605E-3</v>
       </c>
-      <c r="DG19" s="6"/>
+      <c r="DG19" s="6">
+        <v>2.4083349330727977E-3</v>
+      </c>
       <c r="DH19" s="6"/>
       <c r="DI19" s="6"/>
       <c r="DJ19" s="6"/>
@@ -3592,7 +3605,9 @@
       <c r="DF20" s="6">
         <v>1.6522920958380594E-2</v>
       </c>
-      <c r="DG20" s="6"/>
+      <c r="DG20" s="6">
+        <v>-5.8693933838985801E-3</v>
+      </c>
       <c r="DH20" s="6"/>
       <c r="DI20" s="6"/>
       <c r="DJ20" s="6"/>
@@ -4063,7 +4078,9 @@
       <c r="DF21" s="6">
         <v>1.3273470984143554E-2</v>
       </c>
-      <c r="DG21" s="6"/>
+      <c r="DG21" s="6">
+        <v>3.3050540790477978E-3</v>
+      </c>
       <c r="DH21" s="6"/>
       <c r="DI21" s="6"/>
       <c r="DJ21" s="6"/>
@@ -4534,7 +4551,9 @@
       <c r="DF22" s="6">
         <v>7.2829131652651924E-4</v>
       </c>
-      <c r="DG22" s="6"/>
+      <c r="DG22" s="6">
+        <v>1.6634543869611385E-3</v>
+      </c>
       <c r="DH22" s="6"/>
       <c r="DI22" s="6"/>
       <c r="DJ22" s="6"/>
@@ -5005,7 +5024,9 @@
       <c r="DF23" s="6">
         <v>5.6247731946292845E-3</v>
       </c>
-      <c r="DG23" s="6"/>
+      <c r="DG23" s="6">
+        <v>-3.0415245426973492E-3</v>
+      </c>
       <c r="DH23" s="6"/>
       <c r="DI23" s="6"/>
       <c r="DJ23" s="6"/>
@@ -5476,7 +5497,9 @@
       <c r="DF24" s="6">
         <v>1.4325108333630432E-3</v>
       </c>
-      <c r="DG24" s="6"/>
+      <c r="DG24" s="6">
+        <v>-3.6548295962521848E-3</v>
+      </c>
       <c r="DH24" s="6"/>
       <c r="DI24" s="6"/>
       <c r="DJ24" s="6"/>

--- a/Tabulados INPC/inflacion_quincenal_grupo.xlsx
+++ b/Tabulados INPC/inflacion_quincenal_grupo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>Alimentos, bebidas y tabaco</t>
   </si>
@@ -392,9 +392,6 @@
     <t>2°Q/12/2022</t>
   </si>
   <si>
-    <t>Última actualización:  03/09/2023</t>
-  </si>
-  <si>
     <t>1°Q/1/2023</t>
   </si>
   <si>
@@ -405,6 +402,12 @@
   </si>
   <si>
     <t>2°Q/2/2023</t>
+  </si>
+  <si>
+    <t>Última actualización:  03/23/2023</t>
+  </si>
+  <si>
+    <t>1°Q/3/2023</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
     </row>
     <row r="11" spans="1:249" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:249" x14ac:dyDescent="0.25">
@@ -1232,18 +1235,20 @@
         <v>120</v>
       </c>
       <c r="DD15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="DE15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="DE15" s="3" t="s">
+      <c r="DF15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="DF15" s="3" t="s">
+      <c r="DG15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="DG15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DH15" s="3"/>
+      <c r="DH15" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="DI15" s="3"/>
       <c r="DJ15" s="3"/>
       <c r="DK15" s="3"/>
@@ -1716,7 +1721,9 @@
       <c r="DG16" s="6">
         <v>1.0874884454354916E-3</v>
       </c>
-      <c r="DH16" s="6"/>
+      <c r="DH16" s="6">
+        <v>1.9010374232795169E-3</v>
+      </c>
       <c r="DI16" s="6"/>
       <c r="DJ16" s="6"/>
       <c r="DK16" s="6"/>
@@ -2189,7 +2196,9 @@
       <c r="DG17" s="6">
         <v>3.7622633996305943E-3</v>
       </c>
-      <c r="DH17" s="6"/>
+      <c r="DH17" s="6">
+        <v>2.8042816593143449E-4</v>
+      </c>
       <c r="DI17" s="6"/>
       <c r="DJ17" s="6"/>
       <c r="DK17" s="6"/>
@@ -2662,7 +2671,9 @@
       <c r="DG18" s="6">
         <v>-7.3487314893144751E-3</v>
       </c>
-      <c r="DH18" s="6"/>
+      <c r="DH18" s="6">
+        <v>-1.1707283479817088E-3</v>
+      </c>
       <c r="DI18" s="6"/>
       <c r="DJ18" s="6"/>
       <c r="DK18" s="6"/>
@@ -3135,7 +3146,9 @@
       <c r="DG19" s="6">
         <v>2.4083349330727977E-3</v>
       </c>
-      <c r="DH19" s="6"/>
+      <c r="DH19" s="6">
+        <v>-3.3339716917076823E-3</v>
+      </c>
       <c r="DI19" s="6"/>
       <c r="DJ19" s="6"/>
       <c r="DK19" s="6"/>
@@ -3608,7 +3621,9 @@
       <c r="DG20" s="6">
         <v>-5.8693933838985801E-3</v>
       </c>
-      <c r="DH20" s="6"/>
+      <c r="DH20" s="6">
+        <v>5.3204087156584201E-3</v>
+      </c>
       <c r="DI20" s="6"/>
       <c r="DJ20" s="6"/>
       <c r="DK20" s="6"/>
@@ -4081,7 +4096,9 @@
       <c r="DG21" s="6">
         <v>3.3050540790477978E-3</v>
       </c>
-      <c r="DH21" s="6"/>
+      <c r="DH21" s="6">
+        <v>-1.5308657807415749E-3</v>
+      </c>
       <c r="DI21" s="6"/>
       <c r="DJ21" s="6"/>
       <c r="DK21" s="6"/>
@@ -4554,7 +4571,9 @@
       <c r="DG22" s="6">
         <v>1.6634543869611385E-3</v>
       </c>
-      <c r="DH22" s="6"/>
+      <c r="DH22" s="6">
+        <v>8.9501712588524462E-3</v>
+      </c>
       <c r="DI22" s="6"/>
       <c r="DJ22" s="6"/>
       <c r="DK22" s="6"/>
@@ -5027,7 +5046,9 @@
       <c r="DG23" s="6">
         <v>-3.0415245426973492E-3</v>
       </c>
-      <c r="DH23" s="6"/>
+      <c r="DH23" s="6">
+        <v>5.7827379669928014E-3</v>
+      </c>
       <c r="DI23" s="6"/>
       <c r="DJ23" s="6"/>
       <c r="DK23" s="6"/>
@@ -5500,7 +5521,9 @@
       <c r="DG24" s="6">
         <v>-3.6548295962521848E-3</v>
       </c>
-      <c r="DH24" s="6"/>
+      <c r="DH24" s="6">
+        <v>9.411072187446301E-3</v>
+      </c>
       <c r="DI24" s="6"/>
       <c r="DJ24" s="6"/>
       <c r="DK24" s="6"/>
